--- a/02_設計/00_サンプル/テーブル定義書.xlsx
+++ b/02_設計/00_サンプル/テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/2021年技術研修/設計書テンプレート/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="591" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D2E5109-F995-462F-936C-4E0AE6E53614}"/>
+  <xr:revisionPtr revIDLastSave="593" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37374D31-7904-4C74-AD47-BC1ACBB27FC5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="110">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -552,6 +552,10 @@
   </si>
   <si>
     <t>mem_nm_kana_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YYYY-MM-DD形式</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -805,6 +809,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,16 +842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -853,18 +860,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1838,6 +1842,102 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="B30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
     <mergeCell ref="B35:L35"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="O35:P35"/>
@@ -1850,102 +1950,6 @@
     <mergeCell ref="B34:L34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="O34:P34"/>
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="B30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1962,227 +1966,227 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:Z1"/>
+      <selection pane="bottomLeft" sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:43" ht="18.600000000000001" thickTop="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="13" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13" t="s">
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="18"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="19"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="14" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14" t="s">
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="19"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="20"/>
     </row>
     <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="15" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="20"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="21"/>
     </row>
     <row r="4" spans="1:43" ht="18.600000000000001" thickTop="1"/>
     <row r="5" spans="1:43" ht="36" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16" t="s">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="16" t="s">
+      <c r="X5" s="9"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="21" t="s">
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="16" t="s">
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="16" t="s">
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="16" t="s">
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AL5" s="23"/>
-      <c r="AM5" s="23"/>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="23"/>
-      <c r="AQ5" s="17"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="10"/>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" s="5"/>
@@ -2215,12 +2219,12 @@
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
@@ -2260,12 +2264,12 @@
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
@@ -2305,12 +2309,12 @@
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
       <c r="AM8" s="5"/>
@@ -2350,12 +2354,12 @@
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
       <c r="AM9" s="5"/>
@@ -2395,12 +2399,12 @@
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
@@ -2440,12 +2444,12 @@
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
@@ -2485,12 +2489,12 @@
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
@@ -2530,12 +2534,12 @@
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
@@ -2575,12 +2579,12 @@
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="14"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
@@ -2620,12 +2624,12 @@
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
       <c r="AM15" s="5"/>
@@ -2665,12 +2669,12 @@
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
@@ -2710,12 +2714,12 @@
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
       <c r="AK17" s="5"/>
       <c r="AL17" s="5"/>
       <c r="AM17" s="5"/>
@@ -2755,12 +2759,12 @@
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="14"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
       <c r="AM18" s="5"/>
@@ -2800,12 +2804,12 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
       <c r="AM19" s="5"/>
@@ -2845,12 +2849,12 @@
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
       <c r="AM20" s="5"/>
@@ -2890,12 +2894,12 @@
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
       <c r="AM21" s="5"/>
@@ -2935,12 +2939,12 @@
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
-      <c r="AI22" s="14"/>
-      <c r="AJ22" s="14"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
       <c r="AM22" s="5"/>
@@ -2980,12 +2984,12 @@
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="14"/>
-      <c r="AJ23" s="14"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
       <c r="AK23" s="5"/>
       <c r="AL23" s="5"/>
       <c r="AM23" s="5"/>
@@ -3025,12 +3029,12 @@
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="14"/>
-      <c r="AI24" s="14"/>
-      <c r="AJ24" s="14"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
       <c r="AM24" s="5"/>
@@ -3070,12 +3074,12 @@
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="14"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
       <c r="AM25" s="5"/>
@@ -3115,12 +3119,12 @@
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="14"/>
-      <c r="AJ26" s="14"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
       <c r="AM26" s="5"/>
@@ -3160,12 +3164,12 @@
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="14"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
@@ -3205,12 +3209,12 @@
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="14"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
@@ -3250,12 +3254,12 @@
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="14"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="14"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
       <c r="AM29" s="5"/>
@@ -3266,247 +3270,6 @@
     </row>
   </sheetData>
   <mergeCells count="265">
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK28:AQ28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="K29:R29"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AK29:AQ29"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AQ24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AQ26"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AQ22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AQ23"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AQ18"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AQ20"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AQ16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AQ17"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AQ12"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AQ14"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AQ10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="K11:R11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AQ11"/>
-    <mergeCell ref="AK6:AQ6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="Z5:AD5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="K27:R27"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AQ27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AQ25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AQ21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AQ19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AQ15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AQ13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AQ9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AQ7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="Z8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AQ8"/>
     <mergeCell ref="A1:L3"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="M2:P2"/>
@@ -3531,6 +3294,247 @@
     <mergeCell ref="AE6:AF6"/>
     <mergeCell ref="AG6:AH6"/>
     <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AQ9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AQ7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AQ8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AQ15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AQ13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AQ21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AQ19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AQ27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AQ25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AK6:AQ6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="Z5:AD5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AQ10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AQ11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AQ12"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AQ14"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AQ16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AQ17"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AQ18"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AQ20"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AQ22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AQ23"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AQ24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AQ26"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AQ28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="K29:R29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AK29:AQ29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3560,239 +3564,239 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3:AQ3"/>
+      <selection pane="bottomLeft" sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:43" ht="18.600000000000001" thickTop="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="13" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13" t="s">
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="28">
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="25">
         <v>44365</v>
       </c>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13" t="s">
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13" t="s">
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="18"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="19"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="14" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="27">
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="24">
         <v>44365</v>
       </c>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14" t="s">
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14" t="s">
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="19"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="20"/>
     </row>
     <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="15" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="20"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="21"/>
     </row>
     <row r="4" spans="1:43" ht="18.600000000000001" thickTop="1"/>
     <row r="5" spans="1:43" ht="36" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="16" t="s">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="16" t="s">
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="16" t="s">
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="21" t="s">
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="16" t="s">
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="16" t="s">
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="16" t="s">
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AL5" s="23"/>
-      <c r="AM5" s="23"/>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="23"/>
-      <c r="AQ5" s="17"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="10"/>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" s="5">
@@ -3835,18 +3839,18 @@
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
-      <c r="AE6" s="14" t="s">
+      <c r="AE6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14" t="s">
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14" t="s">
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AJ6" s="14"/>
+      <c r="AJ6" s="7"/>
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
@@ -3879,12 +3883,12 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="24" t="s">
+      <c r="R7" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="26"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="28"/>
       <c r="V7" s="5">
         <v>10</v>
       </c>
@@ -3896,12 +3900,12 @@
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
@@ -3934,12 +3938,12 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="24" t="s">
+      <c r="R8" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="26"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="28"/>
       <c r="V8" s="5">
         <v>10</v>
       </c>
@@ -3951,12 +3955,12 @@
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
       <c r="AM8" s="5"/>
@@ -3989,12 +3993,12 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="24" t="s">
+      <c r="R9" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="26"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="28"/>
       <c r="V9" s="5">
         <v>10</v>
       </c>
@@ -4006,12 +4010,12 @@
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
       <c r="AM9" s="5"/>
@@ -4044,12 +4048,12 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="26"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="28"/>
       <c r="V10" s="5">
         <v>10</v>
       </c>
@@ -4061,12 +4065,12 @@
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
@@ -4116,12 +4120,12 @@
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
@@ -4169,13 +4173,15 @@
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="5"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
       <c r="AN12" s="5"/>
@@ -4224,12 +4230,12 @@
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
@@ -4277,13 +4283,15 @@
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="5"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
       <c r="AN14" s="5"/>
@@ -4332,12 +4340,12 @@
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
       <c r="AM15" s="5"/>
@@ -4387,12 +4395,12 @@
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
@@ -4442,12 +4450,12 @@
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
       <c r="AK17" s="5"/>
       <c r="AL17" s="5"/>
       <c r="AM17" s="5"/>
@@ -4497,12 +4505,12 @@
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="14"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
       <c r="AM18" s="5"/>
@@ -4552,12 +4560,12 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
       <c r="AM19" s="5"/>
@@ -4607,12 +4615,12 @@
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
       <c r="AM20" s="5"/>
@@ -4662,12 +4670,12 @@
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
       <c r="AM21" s="5"/>
@@ -4717,12 +4725,12 @@
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
-      <c r="AI22" s="14"/>
-      <c r="AJ22" s="14"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
       <c r="AM22" s="5"/>
@@ -4772,12 +4780,12 @@
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="14"/>
-      <c r="AJ23" s="14"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
       <c r="AK23" s="5"/>
       <c r="AL23" s="5"/>
       <c r="AM23" s="5"/>
@@ -4827,12 +4835,12 @@
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="14"/>
-      <c r="AI24" s="14"/>
-      <c r="AJ24" s="14"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
       <c r="AM24" s="5"/>
@@ -4882,12 +4890,12 @@
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="14"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
       <c r="AM25" s="5"/>
@@ -4937,12 +4945,12 @@
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="14"/>
-      <c r="AJ26" s="14"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
       <c r="AM26" s="5"/>
@@ -4992,12 +5000,12 @@
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="14"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
@@ -5047,12 +5055,12 @@
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="14"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
@@ -5102,12 +5110,12 @@
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="14"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="14"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
       <c r="AM29" s="5"/>
@@ -5157,12 +5165,12 @@
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="14"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
       <c r="AM30" s="5"/>
@@ -5212,14 +5220,14 @@
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
-      <c r="AE31" s="14" t="s">
+      <c r="AE31" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="14"/>
-      <c r="AI31" s="14"/>
-      <c r="AJ31" s="14"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
       <c r="AM31" s="5"/>
@@ -5271,14 +5279,14 @@
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
-      <c r="AE32" s="14" t="s">
+      <c r="AE32" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
-      <c r="AI32" s="14"/>
-      <c r="AJ32" s="14"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
       <c r="AM32" s="5"/>
@@ -5328,14 +5336,14 @@
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
-      <c r="AE33" s="14" t="s">
+      <c r="AE33" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="14"/>
-      <c r="AI33" s="14"/>
-      <c r="AJ33" s="14"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
       <c r="AM33" s="5"/>
@@ -5387,14 +5395,14 @@
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
-      <c r="AE34" s="14" t="s">
+      <c r="AE34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
-      <c r="AJ34" s="14"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
       <c r="AK34" s="5"/>
       <c r="AL34" s="5"/>
       <c r="AM34" s="5"/>
@@ -5442,12 +5450,12 @@
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
-      <c r="AE35" s="14"/>
-      <c r="AF35" s="14"/>
-      <c r="AG35" s="14"/>
-      <c r="AH35" s="14"/>
-      <c r="AI35" s="14"/>
-      <c r="AJ35" s="14"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
       <c r="AK35" s="5"/>
       <c r="AL35" s="5"/>
       <c r="AM35" s="5"/>
@@ -5499,14 +5507,14 @@
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
-      <c r="AE36" s="14" t="s">
+      <c r="AE36" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AF36" s="14"/>
-      <c r="AG36" s="14"/>
-      <c r="AH36" s="14"/>
-      <c r="AI36" s="14"/>
-      <c r="AJ36" s="14"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
       <c r="AK36" s="5"/>
       <c r="AL36" s="5"/>
       <c r="AM36" s="5"/>
@@ -5556,14 +5564,14 @@
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
-      <c r="AE37" s="14" t="s">
+      <c r="AE37" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AF37" s="14"/>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="14"/>
-      <c r="AI37" s="14"/>
-      <c r="AJ37" s="14"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
       <c r="AK37" s="5"/>
       <c r="AL37" s="5"/>
       <c r="AM37" s="5"/>
@@ -5611,14 +5619,14 @@
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
-      <c r="AE38" s="14" t="s">
+      <c r="AE38" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AF38" s="14"/>
-      <c r="AG38" s="14"/>
-      <c r="AH38" s="14"/>
-      <c r="AI38" s="14"/>
-      <c r="AJ38" s="14"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
       <c r="AK38" s="5"/>
       <c r="AL38" s="5"/>
       <c r="AM38" s="5"/>
@@ -5668,14 +5676,14 @@
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
-      <c r="AE39" s="14" t="s">
+      <c r="AE39" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AF39" s="14"/>
-      <c r="AG39" s="14"/>
-      <c r="AH39" s="14"/>
-      <c r="AI39" s="14"/>
-      <c r="AJ39" s="14"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
       <c r="AK39" s="5"/>
       <c r="AL39" s="5"/>
       <c r="AM39" s="5"/>
@@ -5723,14 +5731,14 @@
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
-      <c r="AE40" s="14" t="s">
+      <c r="AE40" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AF40" s="14"/>
-      <c r="AG40" s="14"/>
-      <c r="AH40" s="14"/>
-      <c r="AI40" s="14"/>
-      <c r="AJ40" s="14"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7"/>
       <c r="AK40" s="5"/>
       <c r="AL40" s="5"/>
       <c r="AM40" s="5"/>
@@ -5770,12 +5778,12 @@
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
-      <c r="AE41" s="14"/>
-      <c r="AF41" s="14"/>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="14"/>
-      <c r="AI41" s="14"/>
-      <c r="AJ41" s="14"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
       <c r="AK41" s="5"/>
       <c r="AL41" s="5"/>
       <c r="AM41" s="5"/>
@@ -5815,12 +5823,12 @@
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
-      <c r="AE42" s="14"/>
-      <c r="AF42" s="14"/>
-      <c r="AG42" s="14"/>
-      <c r="AH42" s="14"/>
-      <c r="AI42" s="14"/>
-      <c r="AJ42" s="14"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="7"/>
       <c r="AK42" s="5"/>
       <c r="AL42" s="5"/>
       <c r="AM42" s="5"/>
@@ -5860,12 +5868,12 @@
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="14"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="14"/>
-      <c r="AI43" s="14"/>
-      <c r="AJ43" s="14"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="7"/>
       <c r="AK43" s="5"/>
       <c r="AL43" s="5"/>
       <c r="AM43" s="5"/>
@@ -5876,390 +5884,6 @@
     </row>
   </sheetData>
   <mergeCells count="405">
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="A1:L3"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:AQ3"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="Z5:AD5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AQ6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AQ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="Z8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AQ8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AQ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AQ10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AQ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AQ12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AQ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AQ14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AQ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AQ16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AQ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="V18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AQ18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AQ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AQ20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AQ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AQ22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AQ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AQ24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AQ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="V26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AQ26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="V27:Y27"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AQ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK28:AQ28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AK29:AQ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="Z30:AD30"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AK30:AQ30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AK31:AQ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="R32:U32"/>
-    <mergeCell ref="V32:Y32"/>
-    <mergeCell ref="Z32:AD32"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AQ32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="R33:U33"/>
-    <mergeCell ref="V33:Y33"/>
-    <mergeCell ref="Z33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AQ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AQ34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="R35:U35"/>
-    <mergeCell ref="V35:Y35"/>
-    <mergeCell ref="Z35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AQ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="R36:U36"/>
-    <mergeCell ref="V36:Y36"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AQ36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="R37:U37"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="Z37:AD37"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AK37:AQ37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="R38:U38"/>
-    <mergeCell ref="V38:Y38"/>
-    <mergeCell ref="Z38:AD38"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AQ38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="R39:U39"/>
-    <mergeCell ref="V39:Y39"/>
-    <mergeCell ref="Z39:AD39"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AK39:AQ39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="R40:U40"/>
-    <mergeCell ref="V40:Y40"/>
-    <mergeCell ref="Z40:AD40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="AK40:AQ40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="R41:U41"/>
-    <mergeCell ref="V41:Y41"/>
-    <mergeCell ref="Z41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
     <mergeCell ref="AK41:AQ41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:J42"/>
@@ -6281,6 +5905,390 @@
     <mergeCell ref="R43:U43"/>
     <mergeCell ref="V43:Y43"/>
     <mergeCell ref="Z43:AD43"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="R41:U41"/>
+    <mergeCell ref="V41:Y41"/>
+    <mergeCell ref="Z41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AK39:AQ39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="R40:U40"/>
+    <mergeCell ref="V40:Y40"/>
+    <mergeCell ref="Z40:AD40"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AK40:AQ40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="R39:U39"/>
+    <mergeCell ref="V39:Y39"/>
+    <mergeCell ref="Z39:AD39"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AK37:AQ37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="V38:Y38"/>
+    <mergeCell ref="Z38:AD38"/>
+    <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AQ38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="R37:U37"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="Z37:AD37"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AK35:AQ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="V36:Y36"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AQ36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="R35:U35"/>
+    <mergeCell ref="V35:Y35"/>
+    <mergeCell ref="Z35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK33:AQ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AQ34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="V33:Y33"/>
+    <mergeCell ref="Z33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK31:AQ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="V32:Y32"/>
+    <mergeCell ref="Z32:AD32"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AQ32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="Z31:AD31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AK29:AQ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="V30:Y30"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AK30:AQ30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AK27:AQ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AQ28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="V27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK25:AQ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="V26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AQ26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK23:AQ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AQ24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK21:AQ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AQ22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK19:AQ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AQ20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK17:AQ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AQ18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK15:AQ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AQ16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK13:AQ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AQ14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK11:AQ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AQ12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK9:AQ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AQ10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK7:AQ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="Z8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AQ8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="Z5:AD5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AQ6"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02_設計/00_サンプル/テーブル定義書.xlsx
+++ b/02_設計/00_サンプル/テーブル定義書.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/2021年技術研修/設計書テンプレート/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/2021年技術研修/設計書テンプレート/サンプル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="593" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37374D31-7904-4C74-AD47-BC1ACBB27FC5}"/>
+  <xr:revisionPtr revIDLastSave="619" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5521AE4D-B41D-46E4-8AF9-CE89696EFB7B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="更新履歴" sheetId="3" r:id="rId2"/>
-    <sheet name="テーブル定義書" sheetId="5" r:id="rId3"/>
-    <sheet name="テーブル定義書 (サンプル)" sheetId="8" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId5"/>
-    <sheet name="データ" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="テーブル定義書" sheetId="9" r:id="rId3"/>
+    <sheet name="テーブル定義書 (サンプル)" sheetId="10" r:id="rId4"/>
+    <sheet name="テーブル定義書_old" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="テーブル定義書 (サンプル)_old" sheetId="8" state="hidden" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="データ" sheetId="6" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$M$24</definedName>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="131">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -556,6 +558,117 @@
   </si>
   <si>
     <t>YYYY-MM-DD形式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長さ</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村綜馬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員情報テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字（固定長）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字（可変長）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1：男　2：女</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YYYY-MM-DD形式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：表示　1：非表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1：A型　2：B型　3：O型　4：AB型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：未変更 1：変更済</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：管理者権限 1：部課長権限 2：主任権限 3：一般権限</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：公開　1：非公開</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：有効 1：無効</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付と時刻</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TB_MemberDatas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字（固定長）</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字（可変長）</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カヘン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整数</t>
+    <rPh sb="0" eb="2">
+      <t>セイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月日</t>
+    <rPh sb="0" eb="3">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時刻</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -613,7 +726,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -793,11 +906,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -809,16 +948,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -839,36 +1002,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1958,34 +2115,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82921BD0-D371-4E5D-ACD0-089DC3516C56}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCCE672-D406-4FDE-ADA6-F189D86A5767}">
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AQ29"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="4.19921875" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:43" ht="18.600000000000001" thickTop="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
       <c r="M1" s="17" t="s">
         <v>15</v>
       </c>
@@ -2022,171 +2179,4540 @@
       <c r="AN1" s="17"/>
       <c r="AO1" s="17"/>
       <c r="AP1" s="17"/>
-      <c r="AQ1" s="19"/>
+      <c r="AQ1" s="18"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="7" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7" t="s">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
       <c r="AQ2" s="20"/>
     </row>
     <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="18" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="18"/>
-      <c r="AQ3" s="21"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="28"/>
     </row>
     <row r="4" spans="1:43" ht="18.600000000000001" thickTop="1"/>
     <row r="5" spans="1:43" ht="36" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="8" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="8" t="s">
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="8" t="s">
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="15"/>
+    </row>
+    <row r="6" spans="1:43">
+      <c r="A6" s="9" t="str">
+        <f>IF(C6="","",ROW()-5)</f>
+        <v/>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="10"/>
+    </row>
+    <row r="7" spans="1:43">
+      <c r="A7" s="9" t="str">
+        <f t="shared" ref="A7:A29" si="0">IF(C7="","",ROW()-5)</f>
+        <v/>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="10"/>
+    </row>
+    <row r="8" spans="1:43">
+      <c r="A8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="10"/>
+    </row>
+    <row r="9" spans="1:43">
+      <c r="A9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="10"/>
+    </row>
+    <row r="10" spans="1:43">
+      <c r="A10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="10"/>
+    </row>
+    <row r="11" spans="1:43">
+      <c r="A11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="10"/>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="A12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="10"/>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="A13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="10"/>
+    </row>
+    <row r="14" spans="1:43">
+      <c r="A14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="A15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+    </row>
+    <row r="16" spans="1:43">
+      <c r="A16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+    </row>
+    <row r="17" spans="1:43">
+      <c r="A17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+    </row>
+    <row r="18" spans="1:43">
+      <c r="A18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+    </row>
+    <row r="19" spans="1:43">
+      <c r="A19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+    </row>
+    <row r="20" spans="1:43">
+      <c r="A20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+    </row>
+    <row r="21" spans="1:43">
+      <c r="A21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+    </row>
+    <row r="22" spans="1:43">
+      <c r="A22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+    </row>
+    <row r="23" spans="1:43">
+      <c r="A23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+    </row>
+    <row r="24" spans="1:43">
+      <c r="A24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+    </row>
+    <row r="25" spans="1:43">
+      <c r="A25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5"/>
+    </row>
+    <row r="26" spans="1:43">
+      <c r="A26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
+    </row>
+    <row r="27" spans="1:43">
+      <c r="A27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
+    </row>
+    <row r="28" spans="1:43">
+      <c r="A28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+    </row>
+    <row r="29" spans="1:43">
+      <c r="A29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="265">
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:AQ3"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="Z5:AD5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AQ6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AQ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AQ8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AQ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AQ10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AQ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AQ12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AQ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AQ14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AQ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AQ16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AQ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AQ18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AQ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AQ20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AQ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AQ22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AQ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AQ24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AQ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AQ26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AQ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AK29:AQ29"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AQ28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="K29:R29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="Z29:AD29"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9F8CBE27-C040-49A7-BE85-3255993C213B}">
+          <x14:formula1>
+            <xm:f>Sheet1!$C$2:$C$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>S6:V29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4E46AE9C-D344-4E9D-A343-6FC8BA75B387}">
+          <x14:formula1>
+            <xm:f>Sheet1!$B$1:$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>AE6:AJ29</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE90FB4-0320-492C-A515-EDF37DF12BCC}">
+  <sheetPr codeName="Sheet9">
+    <tabColor theme="0" tint="-0.499984740745262"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AQ41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.19921875" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:43" ht="18.600000000000001" thickTop="1">
+      <c r="A1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="33">
+        <v>44365</v>
+      </c>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="18"/>
+    </row>
+    <row r="2" spans="1:43">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="30">
+        <v>44365</v>
+      </c>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="32"/>
+    </row>
+    <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="28"/>
+    </row>
+    <row r="4" spans="1:43" ht="18.600000000000001" thickTop="1"/>
+    <row r="5" spans="1:43" ht="36" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="15"/>
+    </row>
+    <row r="6" spans="1:43">
+      <c r="A6" s="9">
+        <f>IF(C6="","",ROW()-5)</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="9">
+        <v>4</v>
+      </c>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="10"/>
+    </row>
+    <row r="7" spans="1:43">
+      <c r="A7" s="9">
+        <f t="shared" ref="A7:A41" si="0">IF(C7="","",ROW()-5)</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="9">
+        <v>10</v>
+      </c>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="10"/>
+    </row>
+    <row r="8" spans="1:43">
+      <c r="A8" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="9">
+        <v>10</v>
+      </c>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="10"/>
+    </row>
+    <row r="9" spans="1:43">
+      <c r="A9" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="9">
+        <v>10</v>
+      </c>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="10"/>
+    </row>
+    <row r="10" spans="1:43">
+      <c r="A10" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="9">
+        <v>10</v>
+      </c>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="10"/>
+    </row>
+    <row r="11" spans="1:43">
+      <c r="A11" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="9">
+        <v>1</v>
+      </c>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="10"/>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="A12" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="10"/>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="A13" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="9">
+        <v>1</v>
+      </c>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="10"/>
+    </row>
+    <row r="14" spans="1:43">
+      <c r="A14" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="A15" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="5">
+        <v>1</v>
+      </c>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL15" s="29"/>
+      <c r="AM15" s="29"/>
+      <c r="AN15" s="29"/>
+      <c r="AO15" s="29"/>
+      <c r="AP15" s="29"/>
+      <c r="AQ15" s="29"/>
+    </row>
+    <row r="16" spans="1:43">
+      <c r="A16" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="5">
+        <v>30</v>
+      </c>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+    </row>
+    <row r="17" spans="1:43">
+      <c r="A17" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="5">
+        <v>30</v>
+      </c>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+    </row>
+    <row r="18" spans="1:43">
+      <c r="A18" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="5">
+        <v>11</v>
+      </c>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+    </row>
+    <row r="19" spans="1:43">
+      <c r="A19" s="9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="5">
+        <v>1</v>
+      </c>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+    </row>
+    <row r="20" spans="1:43">
+      <c r="A20" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="5">
+        <v>11</v>
+      </c>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+    </row>
+    <row r="21" spans="1:43">
+      <c r="A21" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="5">
+        <v>1</v>
+      </c>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+    </row>
+    <row r="22" spans="1:43">
+      <c r="A22" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="5">
+        <v>7</v>
+      </c>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+    </row>
+    <row r="23" spans="1:43">
+      <c r="A23" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="5">
+        <v>50</v>
+      </c>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+    </row>
+    <row r="24" spans="1:43">
+      <c r="A24" s="9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="5">
+        <v>1</v>
+      </c>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+    </row>
+    <row r="25" spans="1:43">
+      <c r="A25" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="5">
+        <v>50</v>
+      </c>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5"/>
+    </row>
+    <row r="26" spans="1:43">
+      <c r="A26" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="5">
+        <v>20</v>
+      </c>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
+    </row>
+    <row r="27" spans="1:43">
+      <c r="A27" s="9">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="8" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="5">
+        <v>64</v>
+      </c>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
+    </row>
+    <row r="28" spans="1:43">
+      <c r="A28" s="9">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="22" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="5">
+        <v>4</v>
+      </c>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+    </row>
+    <row r="29" spans="1:43">
+      <c r="A29" s="9">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="8" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="5">
+        <v>4</v>
+      </c>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+    </row>
+    <row r="30" spans="1:43">
+      <c r="A30" s="9">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="8" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="5">
+        <v>4</v>
+      </c>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
+      <c r="AQ30" s="5"/>
+    </row>
+    <row r="31" spans="1:43">
+      <c r="A31" s="9">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="8" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="5">
+        <v>256</v>
+      </c>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="5"/>
+    </row>
+    <row r="32" spans="1:43">
+      <c r="A32" s="9">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="5">
+        <v>1</v>
+      </c>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
+    </row>
+    <row r="33" spans="1:43">
+      <c r="A33" s="9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="5">
+        <v>1</v>
+      </c>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+    </row>
+    <row r="34" spans="1:43">
+      <c r="A34" s="9">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="5">
+        <v>1</v>
+      </c>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+    </row>
+    <row r="35" spans="1:43">
+      <c r="A35" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="5">
+        <v>1</v>
+      </c>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="5"/>
+    </row>
+    <row r="36" spans="1:43">
+      <c r="A36" s="9">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="5">
+        <v>4</v>
+      </c>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
+    </row>
+    <row r="37" spans="1:43">
+      <c r="A37" s="9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5"/>
+      <c r="AQ37" s="5"/>
+    </row>
+    <row r="38" spans="1:43">
+      <c r="A38" s="9">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="5">
+        <v>4</v>
+      </c>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="5"/>
+    </row>
+    <row r="39" spans="1:43">
+      <c r="A39" s="9">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="5"/>
+    </row>
+    <row r="40" spans="1:43">
+      <c r="A40" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+    </row>
+    <row r="41" spans="1:43">
+      <c r="A41" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="385">
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:AQ3"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="Z5:AD5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AQ6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AQ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AQ8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AQ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AQ10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AQ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AQ12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AQ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AQ14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AQ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AQ16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AQ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AQ18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AQ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AQ20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AQ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AQ22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AQ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AQ24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AQ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AQ26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AQ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AQ28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="K29:R29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AK29:AQ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="K30:R30"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AK30:AQ30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="K31:R31"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="Z31:AD31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AK31:AQ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="K32:R32"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z32:AD32"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AQ32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="K33:R33"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AQ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="K34:R34"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AQ34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="K35:R35"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="Z35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AQ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AQ36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="K37:R37"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="Z37:AD37"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AK37:AQ37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="K38:R38"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AD38"/>
+    <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AQ38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="K39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AD39"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AK39:AQ39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="K40:R40"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z40:AD40"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AK41:AQ41"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AK40:AQ40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="K41:R41"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AD41"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{004C30F7-DE64-464D-8DE4-CA48A88BA300}">
+          <x14:formula1>
+            <xm:f>Sheet1!$B$1:$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>AE6:AJ41</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82921BD0-D371-4E5D-ACD0-089DC3516C56}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AQ29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:43" ht="18.600000000000001" thickTop="1">
+      <c r="A1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="18"/>
+    </row>
+    <row r="2" spans="1:43">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="20"/>
+    </row>
+    <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="28"/>
+    </row>
+    <row r="4" spans="1:43" ht="18.600000000000001" thickTop="1"/>
+    <row r="5" spans="1:43" ht="36" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="15"/>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" s="5"/>
@@ -2219,12 +6745,12 @@
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
@@ -2264,12 +6790,12 @@
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
@@ -2309,12 +6835,12 @@
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
       <c r="AM8" s="5"/>
@@ -2354,12 +6880,12 @@
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
       <c r="AM9" s="5"/>
@@ -2399,12 +6925,12 @@
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
@@ -2444,12 +6970,12 @@
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
@@ -2489,12 +7015,12 @@
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
@@ -2534,12 +7060,12 @@
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
@@ -2579,12 +7105,12 @@
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
@@ -2624,12 +7150,12 @@
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="7"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
       <c r="AM15" s="5"/>
@@ -2669,12 +7195,12 @@
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
@@ -2714,12 +7240,12 @@
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
       <c r="AK17" s="5"/>
       <c r="AL17" s="5"/>
       <c r="AM17" s="5"/>
@@ -2759,12 +7285,12 @@
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
       <c r="AM18" s="5"/>
@@ -2804,12 +7330,12 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
       <c r="AM19" s="5"/>
@@ -2849,12 +7375,12 @@
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
       <c r="AM20" s="5"/>
@@ -2894,12 +7420,12 @@
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
       <c r="AM21" s="5"/>
@@ -2939,12 +7465,12 @@
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
       <c r="AM22" s="5"/>
@@ -2984,12 +7510,12 @@
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
       <c r="AK23" s="5"/>
       <c r="AL23" s="5"/>
       <c r="AM23" s="5"/>
@@ -3029,12 +7555,12 @@
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
       <c r="AM24" s="5"/>
@@ -3074,12 +7600,12 @@
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="19"/>
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
       <c r="AM25" s="5"/>
@@ -3119,12 +7645,12 @@
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="7"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
       <c r="AM26" s="5"/>
@@ -3164,12 +7690,12 @@
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7"/>
-      <c r="AJ27" s="7"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
@@ -3209,12 +7735,12 @@
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="7"/>
-      <c r="AI28" s="7"/>
-      <c r="AJ28" s="7"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
@@ -3254,12 +7780,12 @@
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="7"/>
-      <c r="AI29" s="7"/>
-      <c r="AJ29" s="7"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
       <c r="AM29" s="5"/>
@@ -3554,7 +8080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC9C8BC-BE94-489E-AB0F-311F3A92B66D}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -3564,26 +8090,26 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L3"/>
+      <selection pane="bottomLeft" activeCell="AR14" sqref="AR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:43" ht="18.600000000000001" thickTop="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
       <c r="M1" s="17" t="s">
         <v>15</v>
       </c>
@@ -3606,7 +8132,7 @@
         <v>4</v>
       </c>
       <c r="AB1" s="17"/>
-      <c r="AC1" s="25">
+      <c r="AC1" s="33">
         <v>44365</v>
       </c>
       <c r="AD1" s="17"/>
@@ -3626,177 +8152,177 @@
       <c r="AN1" s="17"/>
       <c r="AO1" s="17"/>
       <c r="AP1" s="17"/>
-      <c r="AQ1" s="19"/>
+      <c r="AQ1" s="18"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="7" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="24">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="34">
         <v>44365</v>
       </c>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7" t="s">
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7" t="s">
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
       <c r="AQ2" s="20"/>
     </row>
     <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="18" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="18"/>
-      <c r="AQ3" s="21"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="28"/>
     </row>
     <row r="4" spans="1:43" ht="18.600000000000001" thickTop="1"/>
     <row r="5" spans="1:43" ht="36" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="8" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="8" t="s">
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="8" t="s">
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="8" t="s">
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="22" t="s">
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="8" t="s">
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="8" t="s">
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="8" t="s">
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="10"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="15"/>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" s="5">
@@ -3839,18 +8365,18 @@
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
-      <c r="AE6" s="7" t="s">
+      <c r="AE6" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7" t="s">
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7" t="s">
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AJ6" s="7"/>
+      <c r="AJ6" s="19"/>
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
@@ -3883,12 +8409,12 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="26" t="s">
+      <c r="R7" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="28"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="10"/>
       <c r="V7" s="5">
         <v>10</v>
       </c>
@@ -3900,12 +8426,12 @@
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
@@ -3938,12 +8464,12 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="26" t="s">
+      <c r="R8" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="28"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="10"/>
       <c r="V8" s="5">
         <v>10</v>
       </c>
@@ -3955,12 +8481,12 @@
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
       <c r="AM8" s="5"/>
@@ -3993,12 +8519,12 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="26" t="s">
+      <c r="R9" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="28"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="10"/>
       <c r="V9" s="5">
         <v>10</v>
       </c>
@@ -4010,12 +8536,12 @@
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
       <c r="AM9" s="5"/>
@@ -4048,12 +8574,12 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="26" t="s">
+      <c r="R10" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="28"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="10"/>
       <c r="V10" s="5">
         <v>10</v>
       </c>
@@ -4065,12 +8591,12 @@
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
@@ -4120,12 +8646,12 @@
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
@@ -4173,12 +8699,12 @@
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
       <c r="AK12" s="5" t="s">
         <v>109</v>
       </c>
@@ -4230,12 +8756,12 @@
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
@@ -4283,12 +8809,12 @@
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
       <c r="AK14" s="5" t="s">
         <v>109</v>
       </c>
@@ -4340,12 +8866,12 @@
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="7"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
       <c r="AM15" s="5"/>
@@ -4395,12 +8921,12 @@
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
@@ -4450,12 +8976,12 @@
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
       <c r="AK17" s="5"/>
       <c r="AL17" s="5"/>
       <c r="AM17" s="5"/>
@@ -4505,12 +9031,12 @@
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
       <c r="AM18" s="5"/>
@@ -4560,12 +9086,12 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
       <c r="AM19" s="5"/>
@@ -4615,12 +9141,12 @@
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
       <c r="AM20" s="5"/>
@@ -4670,12 +9196,12 @@
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
       <c r="AM21" s="5"/>
@@ -4725,12 +9251,12 @@
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
       <c r="AM22" s="5"/>
@@ -4780,12 +9306,12 @@
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
       <c r="AK23" s="5"/>
       <c r="AL23" s="5"/>
       <c r="AM23" s="5"/>
@@ -4835,12 +9361,12 @@
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
       <c r="AM24" s="5"/>
@@ -4890,12 +9416,12 @@
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="19"/>
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
       <c r="AM25" s="5"/>
@@ -4945,12 +9471,12 @@
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="7"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
       <c r="AM26" s="5"/>
@@ -5000,12 +9526,12 @@
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7"/>
-      <c r="AJ27" s="7"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
@@ -5055,12 +9581,12 @@
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="7"/>
-      <c r="AI28" s="7"/>
-      <c r="AJ28" s="7"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
@@ -5110,12 +9636,12 @@
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="7"/>
-      <c r="AI29" s="7"/>
-      <c r="AJ29" s="7"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
       <c r="AM29" s="5"/>
@@ -5165,12 +9691,12 @@
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7"/>
-      <c r="AJ30" s="7"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
       <c r="AM30" s="5"/>
@@ -5220,14 +9746,14 @@
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
-      <c r="AE31" s="7" t="s">
+      <c r="AE31" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7"/>
-      <c r="AJ31" s="7"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="19"/>
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
       <c r="AM31" s="5"/>
@@ -5279,14 +9805,14 @@
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
-      <c r="AE32" s="7" t="s">
+      <c r="AE32" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="7"/>
-      <c r="AJ32" s="7"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
       <c r="AM32" s="5"/>
@@ -5336,14 +9862,14 @@
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
-      <c r="AE33" s="7" t="s">
+      <c r="AE33" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="7"/>
-      <c r="AJ33" s="7"/>
+      <c r="AF33" s="19"/>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="19"/>
+      <c r="AJ33" s="19"/>
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
       <c r="AM33" s="5"/>
@@ -5395,14 +9921,14 @@
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
-      <c r="AE34" s="7" t="s">
+      <c r="AE34" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="7"/>
-      <c r="AH34" s="7"/>
-      <c r="AI34" s="7"/>
-      <c r="AJ34" s="7"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="19"/>
       <c r="AK34" s="5"/>
       <c r="AL34" s="5"/>
       <c r="AM34" s="5"/>
@@ -5450,12 +9976,12 @@
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="7"/>
-      <c r="AH35" s="7"/>
-      <c r="AI35" s="7"/>
-      <c r="AJ35" s="7"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="19"/>
+      <c r="AG35" s="19"/>
+      <c r="AH35" s="19"/>
+      <c r="AI35" s="19"/>
+      <c r="AJ35" s="19"/>
       <c r="AK35" s="5"/>
       <c r="AL35" s="5"/>
       <c r="AM35" s="5"/>
@@ -5507,14 +10033,14 @@
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
-      <c r="AE36" s="7" t="s">
+      <c r="AE36" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AF36" s="7"/>
-      <c r="AG36" s="7"/>
-      <c r="AH36" s="7"/>
-      <c r="AI36" s="7"/>
-      <c r="AJ36" s="7"/>
+      <c r="AF36" s="19"/>
+      <c r="AG36" s="19"/>
+      <c r="AH36" s="19"/>
+      <c r="AI36" s="19"/>
+      <c r="AJ36" s="19"/>
       <c r="AK36" s="5"/>
       <c r="AL36" s="5"/>
       <c r="AM36" s="5"/>
@@ -5564,14 +10090,14 @@
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
-      <c r="AE37" s="7" t="s">
+      <c r="AE37" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AF37" s="7"/>
-      <c r="AG37" s="7"/>
-      <c r="AH37" s="7"/>
-      <c r="AI37" s="7"/>
-      <c r="AJ37" s="7"/>
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="19"/>
       <c r="AK37" s="5"/>
       <c r="AL37" s="5"/>
       <c r="AM37" s="5"/>
@@ -5619,14 +10145,14 @@
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
-      <c r="AE38" s="7" t="s">
+      <c r="AE38" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AF38" s="7"/>
-      <c r="AG38" s="7"/>
-      <c r="AH38" s="7"/>
-      <c r="AI38" s="7"/>
-      <c r="AJ38" s="7"/>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="19"/>
       <c r="AK38" s="5"/>
       <c r="AL38" s="5"/>
       <c r="AM38" s="5"/>
@@ -5676,14 +10202,14 @@
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
-      <c r="AE39" s="7" t="s">
+      <c r="AE39" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="7"/>
-      <c r="AH39" s="7"/>
-      <c r="AI39" s="7"/>
-      <c r="AJ39" s="7"/>
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="19"/>
+      <c r="AH39" s="19"/>
+      <c r="AI39" s="19"/>
+      <c r="AJ39" s="19"/>
       <c r="AK39" s="5"/>
       <c r="AL39" s="5"/>
       <c r="AM39" s="5"/>
@@ -5731,14 +10257,14 @@
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
-      <c r="AE40" s="7" t="s">
+      <c r="AE40" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AF40" s="7"/>
-      <c r="AG40" s="7"/>
-      <c r="AH40" s="7"/>
-      <c r="AI40" s="7"/>
-      <c r="AJ40" s="7"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
+      <c r="AI40" s="19"/>
+      <c r="AJ40" s="19"/>
       <c r="AK40" s="5"/>
       <c r="AL40" s="5"/>
       <c r="AM40" s="5"/>
@@ -5778,12 +10304,12 @@
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
-      <c r="AE41" s="7"/>
-      <c r="AF41" s="7"/>
-      <c r="AG41" s="7"/>
-      <c r="AH41" s="7"/>
-      <c r="AI41" s="7"/>
-      <c r="AJ41" s="7"/>
+      <c r="AE41" s="19"/>
+      <c r="AF41" s="19"/>
+      <c r="AG41" s="19"/>
+      <c r="AH41" s="19"/>
+      <c r="AI41" s="19"/>
+      <c r="AJ41" s="19"/>
       <c r="AK41" s="5"/>
       <c r="AL41" s="5"/>
       <c r="AM41" s="5"/>
@@ -5823,12 +10349,12 @@
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
-      <c r="AE42" s="7"/>
-      <c r="AF42" s="7"/>
-      <c r="AG42" s="7"/>
-      <c r="AH42" s="7"/>
-      <c r="AI42" s="7"/>
-      <c r="AJ42" s="7"/>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="19"/>
+      <c r="AH42" s="19"/>
+      <c r="AI42" s="19"/>
+      <c r="AJ42" s="19"/>
       <c r="AK42" s="5"/>
       <c r="AL42" s="5"/>
       <c r="AM42" s="5"/>
@@ -5868,12 +10394,12 @@
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
-      <c r="AE43" s="7"/>
-      <c r="AF43" s="7"/>
-      <c r="AG43" s="7"/>
-      <c r="AH43" s="7"/>
-      <c r="AI43" s="7"/>
-      <c r="AJ43" s="7"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="19"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="19"/>
+      <c r="AJ43" s="19"/>
       <c r="AK43" s="5"/>
       <c r="AL43" s="5"/>
       <c r="AM43" s="5"/>
@@ -6308,19 +10834,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0B9986-5E10-4ACB-932F-A5875484E477}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6329,7 +10883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E0A2E0-8C98-4B4A-A76A-2F599FE1BDD2}">
   <dimension ref="B2:H5"/>
   <sheetViews>
